--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F9328-2697-4B64-994F-DB46220292DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{442887A4-2781-430C-86D6-C8CB18CBE054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,85 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test 업적 14</t>
-  </si>
-  <si>
-    <t>Test 업적 15</t>
-  </si>
-  <si>
-    <t>Test 업적 16</t>
-  </si>
-  <si>
-    <t>Test 업적 17</t>
-  </si>
-  <si>
-    <t>Test 업적 18</t>
-  </si>
-  <si>
-    <t>Test 업적 19</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test 업적 설명 1</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 2</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 3</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 4</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 5</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 6</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 7</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 8</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 9</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 10</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 11</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 12</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 13</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 14</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 15</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 16</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 17</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 18</t>
-  </si>
-  <si>
-    <t>Test 업적 설명 19</t>
-  </si>
-  <si>
     <t>에르고 사용하기</t>
   </si>
   <si>
@@ -135,39 +56,138 @@
     <t>아이템 판매하기</t>
   </si>
   <si>
-    <t>체력 최대치 달성</t>
-  </si>
-  <si>
     <t>장비창에서 무기 교체하기</t>
   </si>
   <si>
-    <t>아뮬렛 장착하기</t>
+    <t>락사시아 처치</t>
+  </si>
+  <si>
+    <t>시몬 마누스 처치</t>
+  </si>
+  <si>
+    <t>페이블 아츠 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 방어 파츠 부위 장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 사망</t>
+  </si>
+  <si>
+    <t>튜토리얼 완료</t>
   </si>
   <si>
     <t>적 처치하기</t>
-  </si>
-  <si>
-    <t>락사시아 처치</t>
-  </si>
-  <si>
-    <t>시몬 마누스 처치</t>
-  </si>
-  <si>
-    <t>스탯 업그레이드 진행</t>
-  </si>
-  <si>
-    <t>별바라기 복구하기</t>
-  </si>
-  <si>
-    <t>소피아를 죽이기로 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이블 아츠 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 방어 파츠 부위 장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소피아를 편안하게 해 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별바라기 복구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 내구도 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 점수 달성 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 점수 달성 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에르고 5000개 소모하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 아이템 3개 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 아이템 3개 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 700 달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착된 무기를 다른 것으로 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아뮬렛 슬롯 2개 모두 장착 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 5마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소피아를 만나 결단을 내리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결전 : 락사시아에서 승리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결전 : 시몬 마누스에서 승리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별바라기 1개를 복구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 창에서 업그레이드 1회 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 중 페이블 아츠 10칸 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개 부위에 방어 파츠를 모두 장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라인더로 내구도 1000 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 사망하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼에서 점수 1000을 달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼에서 점수 2000을 달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 튜토리얼을 완수하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아뮬렛 2개 모두 장착하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3">
         <v>5000</v>
@@ -588,13 +608,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -605,13 +625,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>577</v>
+        <v>633</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -622,13 +642,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3">
         <v>700</v>
@@ -642,10 +662,10 @@
         <v>579</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -656,16 +676,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>580</v>
+        <v>641</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,16 +693,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -690,13 +710,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>582</v>
+        <v>634</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -710,10 +730,10 @@
         <v>583</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -727,10 +747,10 @@
         <v>584</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -744,10 +764,10 @@
         <v>585</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -761,10 +781,10 @@
         <v>586</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -778,10 +798,10 @@
         <v>587</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -792,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -812,13 +832,13 @@
         <v>589</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -829,10 +849,10 @@
         <v>590</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -846,13 +866,13 @@
         <v>585</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -863,13 +883,13 @@
         <v>585</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -880,29 +900,12 @@
         <v>585</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>585</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442887A4-2781-430C-86D6-C8CB18CBE054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C2474-2C6F-4E21-8FFF-0369C50BAFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,11 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -561,7 +568,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,7 +594,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -604,7 +611,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -621,7 +628,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -638,7 +645,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -655,7 +662,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="3">
@@ -672,7 +679,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -757,7 +764,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="3">
@@ -808,7 +815,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="3">

--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C2474-2C6F-4E21-8FFF-0369C50BAFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50EBC8E-0E52-4365-BAB0-FF5F134ABD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievment_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>

--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\NewProject\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50EBC8E-0E52-4365-BAB0-FF5F134ABD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DB0E09-28B1-4BE8-AB41-1B2C70E4AD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievment_Data" sheetId="1" r:id="rId1"/>
@@ -579,15 +579,15 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -672,7 +672,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -706,8 +706,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -740,8 +740,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -757,8 +757,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="3">
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -791,8 +791,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="3">
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>

--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\NewProject\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DB0E09-28B1-4BE8-AB41-1B2C70E4AD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2928579-C775-4488-B1C4-0ED2F9336C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievment_Data" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 5마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소피아를 만나 결단을 내리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>아뮬렛 2개 모두 장착하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 3마리 처치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,15 +579,15 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -672,7 +672,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -697,7 +697,7 @@
         <v>641</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -717,13 +717,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -734,13 +734,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -751,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -768,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -785,13 +785,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -802,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -819,13 +819,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -836,13 +836,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -853,13 +853,13 @@
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -870,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -887,13 +887,13 @@
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -904,13 +904,13 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -921,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>

--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2928579-C775-4488-B1C4-0ED2F9336C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A0BB4-8F29-47D0-AED3-E43A684BED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievment_Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>튜토리얼 점수 달성 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼 점수 달성 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에르고 5000개 소모하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,14 +171,6 @@
   </si>
   <si>
     <t>1회 사망하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼에서 점수 1000을 달성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜토리얼에서 점수 2000을 달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -576,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>5000</v>
@@ -632,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -649,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -663,10 +647,10 @@
         <v>541</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
         <v>700</v>
@@ -683,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -697,10 +681,10 @@
         <v>641</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -717,14 +701,14 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -734,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -751,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -768,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -785,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -802,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -819,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -836,14 +820,14 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="3">
@@ -853,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3">
         <v>1000</v>
@@ -870,60 +854,26 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>585</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>585</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>585</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A0BB4-8F29-47D0-AED3-E43A684BED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{404F4B8C-EEC3-425D-96D6-F9B9C76C43E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="2685" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievment_Data" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소피아를 만나 결단을 내리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결전 : 락사시아에서 승리하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>적 3마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
         <v>641</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>26</v>
@@ -701,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -715,10 +715,10 @@
         <v>634</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3">
         <v>1000</v>
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>

--- a/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Achievment_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{404F4B8C-EEC3-425D-96D6-F9B9C76C43E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6AC999-8F4F-44C8-8442-80D8B4C06933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2685" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievment_Data" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모든 방어 파츠 부위 장착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 사망</t>
   </si>
   <si>
@@ -158,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4개 부위에 방어 파츠를 모두 장착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그라인더로 내구도 1000 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +175,14 @@
   </si>
   <si>
     <t>마지막 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 P기관 파츠 부위 장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개 부위에 파츠를 모두 장착</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3">
         <v>5000</v>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -647,10 +647,10 @@
         <v>541</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="3">
         <v>700</v>
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>641</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -698,10 +698,10 @@
         <v>618</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -715,10 +715,10 @@
         <v>634</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -766,10 +766,10 @@
         <v>585</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>586</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -817,10 +817,10 @@
         <v>640</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -834,10 +834,10 @@
         <v>589</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3">
         <v>1000</v>
@@ -851,10 +851,10 @@
         <v>590</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>585</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
